--- a/models_info.xlsx
+++ b/models_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidpilny/Projects/Python/Bachelor_Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{485FDB45-7A45-B549-8B70-92AC4B09FAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D887C2C-161B-E14A-A87D-18314EAE768F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{90F120B4-2A98-FE4B-BF9A-07D41FD74252}"/>
   </bookViews>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE49FE5-C8AA-2E47-A318-FAAB4DC74D15}">
-  <dimension ref="B3:F12"/>
+  <dimension ref="B3:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,6 +493,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>20230422</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/models_info.xlsx
+++ b/models_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidpilny/Projects/Python/Bachelor_Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D887C2C-161B-E14A-A87D-18314EAE768F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADC45AC-DAD4-FC4B-9775-AF0C5D8E2D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{90F120B4-2A98-FE4B-BF9A-07D41FD74252}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16220" xr2:uid="{90F120B4-2A98-FE4B-BF9A-07D41FD74252}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Model</t>
   </si>
   <si>
     <t># of layers</t>
   </si>
+  <si>
+    <t>Pretrained On</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,13 +67,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,9 +102,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -404,13 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE49FE5-C8AA-2E47-A318-FAAB4DC74D15}">
-  <dimension ref="B3:F13"/>
+  <dimension ref="B3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -419,6 +446,9 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4">
@@ -427,6 +457,7 @@
       <c r="C4">
         <v>9</v>
       </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -435,6 +466,7 @@
       <c r="C5">
         <v>11</v>
       </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -443,6 +475,7 @@
       <c r="C6">
         <v>9</v>
       </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7">
@@ -451,6 +484,7 @@
       <c r="C7">
         <v>11</v>
       </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8">
@@ -459,6 +493,7 @@
       <c r="C8">
         <v>9</v>
       </c>
+      <c r="D8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -468,6 +503,7 @@
       <c r="C9">
         <v>9</v>
       </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10">
@@ -476,6 +512,7 @@
       <c r="C10">
         <v>9</v>
       </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11">
@@ -484,6 +521,9 @@
       <c r="C11">
         <v>9</v>
       </c>
+      <c r="D11" s="4">
+        <v>20221030</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -492,13 +532,31 @@
       <c r="C12">
         <v>9</v>
       </c>
+      <c r="D12" s="5">
+        <v>20221030</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>20230422</v>
+        <v>20230423</v>
       </c>
       <c r="C13">
         <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>20230501</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>20230505</v>
       </c>
     </row>
   </sheetData>
